--- a/test_dashboard.xlsx
+++ b/test_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Software engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\james4\james5\geniusfinanceapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C445002-905C-3947-8C2E-AFEE503806F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F0AAF3-190B-46F0-B708-4E43D81D9BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C20D73E1-C165-6448-8C1C-E7E4A366A090}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C20D73E1-C165-6448-8C1C-E7E4A366A090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -60,15 +60,9 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Check if user if login Window opens and Dashboard window closes after log out button is clicked</t>
-  </si>
-  <si>
     <t>Check if user can successfully search for stock symbol and stock Window appears.</t>
   </si>
   <si>
-    <t>Check if user can searches for stock symbol that does not exists and appropriate message appears.</t>
-  </si>
-  <si>
     <t>Check is portfolio window appears after user clicks porfolio button.</t>
   </si>
   <si>
@@ -103,13 +97,43 @@
   </si>
   <si>
     <t>Changes are pushed to database</t>
+  </si>
+  <si>
+    <t>Check if user login Window opens and Dashboard window closes after log out button is clicked</t>
+  </si>
+  <si>
+    <t>Check if user can search for stock symbol that does not exists and appropriate message appears.</t>
+  </si>
+  <si>
+    <t>self.dashboardControllerObject</t>
+  </si>
+  <si>
+    <t>stock window displaying stock info ($TSLA) is displayed</t>
+  </si>
+  <si>
+    <t>$TSLA</t>
+  </si>
+  <si>
+    <t>Nothing is displayed</t>
+  </si>
+  <si>
+    <t>No changes are pushed to database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if user can logout </t>
+  </si>
+  <si>
+    <t>Login window is displayed</t>
+  </si>
+  <si>
+    <t>Login window is displayer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,22 +551,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85BA15A-69E1-3147-B68D-A864B58B9260}">
-  <dimension ref="A4:G14"/>
+  <dimension ref="A4:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="62.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,124 +589,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" s="4"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="C14" s="4"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="4"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
